--- a/タスク分け.xlsx
+++ b/タスク分け.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/mcd2376083_stu_o-hara_ac_jp/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\OneDrive - ooharastudent\デスクトップ\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB21D411-5D33-4149-9669-E89CF711CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C3249-D851-44E8-9F6D-631D9F5FBC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
   </bookViews>
@@ -33,6 +33,33 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>AI関係</t>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拓実</t>
+    <rPh sb="0" eb="2">
+      <t>タクミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -52,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +107,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,13 +428,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E02B71-9B36-4C61-BACD-A417480519E8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/タスク分け.xlsx
+++ b/タスク分け.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/mcd2376083_stu_o-hara_ac_jp/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/mcd2376083_stu_o-hara_ac_jp/Documents/デスクトップ/PUPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB21D411-5D33-4149-9669-E89CF711CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{CB21D411-5D33-4149-9669-E89CF711CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F146D611-0D60-4B20-8948-E549CD5B3808}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
   </bookViews>
@@ -33,6 +33,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -52,20 +64,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,8 +107,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,13 +431,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E02B71-9B36-4C61-BACD-A417480519E8}">
-  <dimension ref="A1"/>
+  <dimension ref="K1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/タスク分け.xlsx
+++ b/タスク分け.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/mcd2376083_stu_o-hara_ac_jp/Documents/デスクトップ/PUPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{CB21D411-5D33-4149-9669-E89CF711CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F146D611-0D60-4B20-8948-E549CD5B3808}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{CB21D411-5D33-4149-9669-E89CF711CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12E2B51A-16B2-4A34-9654-3E6F82005B11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
   </bookViews>
@@ -431,119 +431,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E02B71-9B36-4C61-BACD-A417480519E8}">
-  <dimension ref="K1:L26"/>
+  <dimension ref="K1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M1" sqref="M1:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K9" s="1"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K13" s="1"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/タスク分け.xlsx
+++ b/タスク分け.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/mcd2376083_stu_o-hara_ac_jp/Documents/デスクトップ/PUPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\OneDrive - ooharastudent\デスクトップ\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{CB21D411-5D33-4149-9669-E89CF711CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F146D611-0D60-4B20-8948-E549CD5B3808}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B8B81-DD6A-4D75-BD0F-2D45015F42E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51BB9AC5-9A20-4E91-944C-F13BA2807514}"/>
   </bookViews>
@@ -34,12 +34,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>鈴木</t>
     <rPh sb="0" eb="2">
       <t>スズキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拓実</t>
+    <rPh sb="0" eb="2">
+      <t>タクミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIの作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -64,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +96,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +143,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,77 +462,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E02B71-9B36-4C61-BACD-A417480519E8}">
-  <dimension ref="K1:L26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K9" s="1"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K13" s="1"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
     </row>
